--- a/examples/seating_plan/spreadsheets/classroom-seating_plan-org.xlsx
+++ b/examples/seating_plan/spreadsheets/classroom-seating_plan-org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\seating_plan\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408C9DC-32F5-47DC-BD99-0CC38FEE1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB52D2-D76E-4775-9A7C-9931D2D21423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -621,34 +621,34 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,31 +656,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,25 +688,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
